--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="107">
   <si>
     <t>dateTime</t>
   </si>
@@ -305,6 +305,33 @@
   </si>
   <si>
     <t>annguyen.31221024845@st.ueh.edu.vn</t>
+  </si>
+  <si>
+    <t>maicongson6242@gmail.com</t>
+  </si>
+  <si>
+    <t>Lao động phổ thông</t>
+  </si>
+  <si>
+    <t>mymai72343@gmail.com</t>
+  </si>
+  <si>
+    <t>dungle.31211027573@st.ueh.edu.vn</t>
+  </si>
+  <si>
+    <t>1.58</t>
+  </si>
+  <si>
+    <t>1.81</t>
+  </si>
+  <si>
+    <t>1.64</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>1.76</t>
   </si>
 </sst>
 </file>
@@ -2131,6 +2158,1026 @@
         <v>97</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>45413.425016967594</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="3">
+        <v>55.0</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>45413.430719236116</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>45414.87162690972</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="3">
+        <v>58.0</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>45414.87204805556</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="3">
+        <v>61.0</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>45414.872380671295</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55" s="3">
+        <v>45.0</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>45414.87276615741</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="3">
+        <v>63.0</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>45414.873248125004</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>45414.8735706713</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>45414.873928333334</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>45414.874497592595</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="3">
+        <v>51.0</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>45414.87480805555</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>45414.87505585648</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="3">
+        <v>65.0</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>45414.87536873843</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63" s="3">
+        <v>75.0</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>45414.87599127315</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" s="3">
+        <v>48.0</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>45414.87655221065</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>45414.87703418982</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="3">
+        <v>54.0</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>45414.87757511574</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>45414.8779465625</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" s="3">
+        <v>55.0</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>45414.87832375</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="3">
+        <v>57.0</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>45414.87881974537</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="3">
+        <v>48.0</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>45414.87932476852</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" s="3">
+        <v>44.0</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>45414.87971434028</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" s="3">
+        <v>40.0</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>45414.880207766204</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="3">
+        <v>66.0</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>45414.880703483796</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>45414.880974479165</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="3">
+        <v>86.0</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>45414.88127467592</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="3">
+        <v>79.0</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>45414.8817455324</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
+        <v>45414.88206243055</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G78" s="3">
+        <v>61.0</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>45414.88245616898</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="3">
+        <v>50.0</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2">
+        <v>45414.88277322917</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" s="3">
+        <v>48.0</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
